--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched/ifoCAst_error_tables_filtered_latest_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched/ifoCAst_error_tables_filtered_latest_GVA.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07472695834740915</v>
+        <v>-0.076860368503937</v>
       </c>
       <c r="C2">
-        <v>0.8004025563310396</v>
+        <v>0.803884330424265</v>
       </c>
       <c r="D2">
-        <v>1.338300422531774</v>
+        <v>1.335363848599442</v>
       </c>
       <c r="E2">
-        <v>1.156849351701324</v>
+        <v>1.155579442790258</v>
       </c>
       <c r="F2">
-        <v>1.181600180002369</v>
+        <v>1.18015413262448</v>
       </c>
       <c r="G2">
         <v>22</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09277974108563428</v>
+        <v>0.08565359546942733</v>
       </c>
       <c r="C3">
-        <v>1.02812032128367</v>
+        <v>0.9749789586808505</v>
       </c>
       <c r="D3">
-        <v>1.558292212210291</v>
+        <v>1.486598319041417</v>
       </c>
       <c r="E3">
-        <v>1.248315750205168</v>
+        <v>1.219261382576114</v>
       </c>
       <c r="F3">
-        <v>1.274158002103205</v>
+        <v>1.243583914527342</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09194814286478097</v>
+        <v>0.1093541282614182</v>
       </c>
       <c r="C4">
-        <v>1.634640963739713</v>
+        <v>1.574993429461694</v>
       </c>
       <c r="D4">
-        <v>10.81859291896148</v>
+        <v>10.32836645436715</v>
       </c>
       <c r="E4">
-        <v>3.289162951111039</v>
+        <v>3.213777598771756</v>
       </c>
       <c r="F4">
-        <v>3.369071887164841</v>
+        <v>3.287501431018957</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
